--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="121">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,157 +46,166 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>crap</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>tiny</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>probably</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>un</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
     <t>fell</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
-    <t>thought</t>
+    <t>though</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>sound</t>
   </si>
   <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>better</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>product</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>box</t>
@@ -205,70 +214,49 @@
     <t>could</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>look</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>put</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>pieces</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>get</t>
   </si>
   <si>
     <t>negative</t>
@@ -277,36 +265,36 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>favorite</t>
+    <t>enjoyable</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -319,40 +307,43 @@
     <t>best</t>
   </si>
   <si>
+    <t>expansion</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>expansion</t>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>fun</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
+    <t>book</t>
   </si>
   <si>
     <t>birthday</t>
@@ -379,10 +370,7 @@
     <t>play</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>year</t>
   </si>
   <si>
     <t>good</t>
@@ -746,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,10 +742,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -815,13 +803,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -833,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -865,13 +853,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -883,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -907,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -915,13 +903,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7619047619047619</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -933,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K5">
-        <v>0.8769230769230769</v>
+        <v>0.85</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -957,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -965,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -983,31 +971,31 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K6">
-        <v>0.85</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
+        <v>76</v>
+      </c>
+      <c r="M6">
+        <v>76</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>17</v>
-      </c>
-      <c r="M6">
-        <v>17</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1015,13 +1003,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7183098591549296</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C7">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1033,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K7">
-        <v>0.8387096774193549</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L7">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1057,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1065,13 +1053,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6824324324324325</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C8">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1083,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K8">
-        <v>0.796875</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1107,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1115,13 +1103,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6720430107526881</v>
+        <v>0.671875</v>
       </c>
       <c r="C9">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D9">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1133,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K9">
-        <v>0.7916666666666666</v>
+        <v>0.734375</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1157,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1165,13 +1153,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6650485436893204</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C10">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="D10">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1183,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K10">
-        <v>0.660377358490566</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1207,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1215,13 +1203,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.631578947368421</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1233,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K11">
-        <v>0.5839311334289814</v>
+        <v>0.5767575322812052</v>
       </c>
       <c r="L11">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M11">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1257,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1265,13 +1253,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6181818181818182</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1283,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K12">
-        <v>0.5362318840579711</v>
+        <v>0.529045643153527</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1307,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1315,13 +1303,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1333,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K13">
-        <v>0.5269709543568465</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L13">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1357,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>228</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1365,13 +1353,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5925925925925926</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1383,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K14">
-        <v>0.4811475409836066</v>
+        <v>0.4827868852459016</v>
       </c>
       <c r="L14">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M14">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1407,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1415,13 +1403,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5630252100840336</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C15">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1433,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K15">
-        <v>0.3853211009174312</v>
+        <v>0.400611620795107</v>
       </c>
       <c r="L15">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M15">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1457,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1486,16 +1474,16 @@
         <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K16">
-        <v>0.3674698795180723</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="L16">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M16">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1507,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1515,13 +1503,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5517241379310345</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1533,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K17">
-        <v>0.3333333333333333</v>
+        <v>0.325</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1557,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1565,13 +1553,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5246376811594203</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C18">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D18">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1583,19 +1571,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K18">
-        <v>0.328042328042328</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L18">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1607,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>127</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1615,13 +1603,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1633,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K19">
-        <v>0.3191489361702128</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1657,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1665,13 +1653,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1683,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K20">
-        <v>0.288135593220339</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1707,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1715,7 +1703,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C21">
         <v>24</v>
@@ -1733,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K21">
-        <v>0.2830188679245283</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L21">
         <v>15</v>
@@ -1757,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1765,13 +1753,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4698795180722892</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C22">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1783,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K22">
-        <v>0.2421875</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1807,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>97</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1815,13 +1803,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4259259259259259</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1833,31 +1821,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K23">
-        <v>0.2236842105263158</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1886,16 +1874,16 @@
         <v>25</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K24">
-        <v>0.2167832167832168</v>
+        <v>0.25</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1907,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1915,7 +1903,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4094488188976378</v>
+        <v>0.40625</v>
       </c>
       <c r="C25">
         <v>52</v>
@@ -1933,19 +1921,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K25">
-        <v>0.2048192771084337</v>
+        <v>0.2329317269076305</v>
       </c>
       <c r="L25">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M25">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1957,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1965,46 +1953,46 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4044943820224719</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="C26">
+        <v>84</v>
+      </c>
+      <c r="D26">
+        <v>84</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>127</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26">
+        <v>0.1945945945945946</v>
+      </c>
+      <c r="L26">
         <v>36</v>
-      </c>
-      <c r="D26">
-        <v>36</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>53</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K26">
-        <v>0.1989247311827957</v>
-      </c>
-      <c r="L26">
-        <v>37</v>
       </c>
       <c r="M26">
         <v>37</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
         <v>149</v>
@@ -2015,13 +2003,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3791469194312796</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C27">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2033,19 +2021,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K27">
-        <v>0.184</v>
+        <v>0.168273444347064</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2057,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>102</v>
+        <v>949</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2065,13 +2053,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.375</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C28">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2083,19 +2071,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K28">
-        <v>0.1796669588080631</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L28">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2107,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>936</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2115,13 +2103,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3703703703703703</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2133,19 +2121,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K29">
-        <v>0.1587301587301587</v>
+        <v>0.152</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2165,13 +2153,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3650793650793651</v>
+        <v>0.35</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2183,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K30">
-        <v>0.1538461538461539</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2207,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>99</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2236,16 +2224,16 @@
         <v>41</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K31">
-        <v>0.0947075208913649</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2257,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>325</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2265,13 +2253,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3368421052631579</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2283,31 +2271,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K32">
-        <v>0.09421702404158544</v>
+        <v>0.106145251396648</v>
       </c>
       <c r="L32">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="N32">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1394</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2315,13 +2303,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3333333333333333</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2333,31 +2321,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K33">
-        <v>0.09358288770053476</v>
+        <v>0.1000649772579597</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>339</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2365,13 +2353,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3148148148148148</v>
+        <v>0.3134328358208955</v>
       </c>
       <c r="C34">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2383,31 +2371,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K34">
-        <v>0.078125</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>236</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2415,37 +2403,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3148148148148148</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="C35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35">
         <v>18</v>
       </c>
       <c r="E35">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K35">
-        <v>0.07098765432098765</v>
+        <v>0.0622568093385214</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2457,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>301</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2465,13 +2453,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3125</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2483,13 +2471,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K36">
-        <v>0.06896551724137931</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="L36">
         <v>20</v>
@@ -2507,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>270</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2515,13 +2503,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2871287128712871</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C37">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D37">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2533,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K37">
-        <v>0.05319148936170213</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2557,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>712</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2565,13 +2553,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2755102040816326</v>
+        <v>0.265625</v>
       </c>
       <c r="C38">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D38">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2583,31 +2571,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K38">
-        <v>0.04358974358974359</v>
+        <v>0.05080213903743316</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N38">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="O38">
-        <v>0.26</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>373</v>
+        <v>710</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2615,49 +2603,49 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2666666666666667</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C39">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>29</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>88</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K39">
+        <v>0.03219315895372234</v>
+      </c>
+      <c r="L39">
         <v>16</v>
       </c>
-      <c r="D39">
-        <v>16</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>44</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K39">
-        <v>0.03900709219858156</v>
-      </c>
-      <c r="L39">
-        <v>22</v>
-      </c>
       <c r="M39">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0.16</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>542</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2665,13 +2653,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2422680412371134</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C40">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2683,31 +2671,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K40">
-        <v>0.03142857142857143</v>
+        <v>0.03129445234708392</v>
       </c>
       <c r="L40">
         <v>22</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N40">
-        <v>0.8100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="O40">
-        <v>0.1899999999999999</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2715,13 +2703,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2238805970149254</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2733,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2741,13 +2729,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2222222222222222</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C42">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2759,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>91</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2767,7 +2755,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2173913043478261</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C43">
         <v>15</v>
@@ -2785,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2793,13 +2781,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.215</v>
+        <v>0.1993670886075949</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D44">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2811,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>157</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2845,25 +2833,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1930379746835443</v>
+        <v>0.1827637444279346</v>
       </c>
       <c r="C46">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="D46">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>255</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2871,25 +2859,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1869158878504673</v>
+        <v>0.1815561959654179</v>
       </c>
       <c r="C47">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="D47">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E47">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F47">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>87</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2897,13 +2885,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1857142857142857</v>
+        <v>0.18</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D48">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2915,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>114</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2923,13 +2911,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1822429906542056</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C49">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D49">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2941,7 +2929,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2949,25 +2937,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1791907514450867</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C50">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E50">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>284</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2975,13 +2963,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1772151898734177</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C51">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2993,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>260</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3001,25 +2989,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1648351648351648</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3027,13 +3015,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1602373887240356</v>
+        <v>0.15</v>
       </c>
       <c r="C53">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="D53">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3045,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>566</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3053,13 +3041,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1541850220264317</v>
+        <v>0.1497797356828194</v>
       </c>
       <c r="C54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D54">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3071,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3079,25 +3067,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1485148514851485</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="D55">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E55">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>86</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3105,25 +3093,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1465968586387434</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C56">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D56">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3131,25 +3119,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1464968152866242</v>
+        <v>0.1295546558704453</v>
       </c>
       <c r="C57">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D57">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>134</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3157,25 +3145,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1411290322580645</v>
+        <v>0.1240601503759398</v>
       </c>
       <c r="C58">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D58">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3183,13 +3171,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1355932203389831</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3201,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>102</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3209,13 +3197,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.125</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3227,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>112</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3235,7 +3223,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1233766233766234</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="C61">
         <v>19</v>
@@ -3253,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>135</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3261,25 +3249,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1086142322097378</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="C62">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D62">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>238</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3287,25 +3275,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.106951871657754</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="C63">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E63">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3313,13 +3301,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1038251366120219</v>
+        <v>0.09375</v>
       </c>
       <c r="C64">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3331,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3339,25 +3327,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1026785714285714</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="C65">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D65">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E65">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F65">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>402</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3365,13 +3353,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1012658227848101</v>
+        <v>0.08463251670378619</v>
       </c>
       <c r="C66">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D66">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3383,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>142</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3391,25 +3379,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.09714285714285714</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C67">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3417,25 +3405,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.0958904109589041</v>
+        <v>0.06810035842293907</v>
       </c>
       <c r="C68">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D68">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>330</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3443,25 +3431,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.09278350515463918</v>
+        <v>0.06765676567656766</v>
       </c>
       <c r="C69">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E69">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F69">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>176</v>
+        <v>565</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3469,25 +3457,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.08333333333333333</v>
+        <v>0.06318681318681318</v>
       </c>
       <c r="C70">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>176</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3495,25 +3483,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07670454545454546</v>
+        <v>0.06012658227848101</v>
       </c>
       <c r="C71">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D71">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E71">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F71">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>325</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3521,25 +3509,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07142857142857142</v>
+        <v>0.05529953917050692</v>
       </c>
       <c r="C72">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>260</v>
+        <v>615</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3547,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.066006600660066</v>
+        <v>0.05477707006369427</v>
       </c>
       <c r="C73">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D73">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E73">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="F73">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>566</v>
+        <v>742</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3573,25 +3561,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.05827505827505827</v>
+        <v>0.0468384074941452</v>
       </c>
       <c r="C74">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D74">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E74">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="F74">
-        <v>0.83</v>
+        <v>0.74</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3599,129 +3587,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.05696202531645569</v>
+        <v>0.0397196261682243</v>
       </c>
       <c r="C75">
+        <v>17</v>
+      </c>
+      <c r="D75">
         <v>18</v>
       </c>
-      <c r="D75">
-        <v>19</v>
-      </c>
       <c r="E75">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F75">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>0.05343511450381679</v>
-      </c>
-      <c r="C76">
-        <v>35</v>
-      </c>
-      <c r="D76">
-        <v>35</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77">
-        <v>0.04719387755102041</v>
-      </c>
-      <c r="C77">
-        <v>37</v>
-      </c>
-      <c r="D77">
-        <v>47</v>
-      </c>
-      <c r="E77">
-        <v>0.21</v>
-      </c>
-      <c r="F77">
-        <v>0.79</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78">
-        <v>0.02982107355864811</v>
-      </c>
-      <c r="C78">
-        <v>15</v>
-      </c>
-      <c r="D78">
-        <v>16</v>
-      </c>
-      <c r="E78">
-        <v>0.06</v>
-      </c>
-      <c r="F78">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79">
-        <v>0.02186588921282799</v>
-      </c>
-      <c r="C79">
-        <v>15</v>
-      </c>
-      <c r="D79">
-        <v>21</v>
-      </c>
-      <c r="E79">
-        <v>0.29</v>
-      </c>
-      <c r="F79">
-        <v>0.71</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>671</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
